--- a/WIP/files/Q11.xlsx
+++ b/WIP/files/Q11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\WIP\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE24D1EC-41FE-45A1-B72C-8DF3FB4173B1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C673BEC-3A61-4BB4-B439-17B4D5EA931C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -837,10 +837,13 @@
   <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:A66"/>
+      <selection activeCell="B25" sqref="B1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/WIP/files/Q11.xlsx
+++ b/WIP/files/Q11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\WIP\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C673BEC-3A61-4BB4-B439-17B4D5EA931C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D7FBEB-F43B-4024-84A7-F5CA2230186B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/WIP/files/Q11.xlsx
+++ b/WIP/files/Q11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\WIP\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2428BCF-8754-462F-89B1-33F104E0EAAB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8F9B11-FB48-444C-A1BA-6B82A1E129A3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,9 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B1:AC1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>

--- a/WIP/files/Q11.xlsx
+++ b/WIP/files/Q11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\WIP\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8F9B11-FB48-444C-A1BA-6B82A1E129A3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B71E3B-8F86-4B9F-9CE4-35F20B8848BD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="155">
   <si>
     <t>Joe went to the store.</t>
   </si>
@@ -86,6 +86,405 @@
   </si>
   <si>
     <t>Will you bring chips for the party that we are having for Jan, and can you invite Marie?</t>
+  </si>
+  <si>
+    <t>Joe 3</t>
+  </si>
+  <si>
+    <t>went 4</t>
+  </si>
+  <si>
+    <t>to 2</t>
+  </si>
+  <si>
+    <t>the 3</t>
+  </si>
+  <si>
+    <t>store. 6</t>
+  </si>
+  <si>
+    <t>Sarah 5</t>
+  </si>
+  <si>
+    <t>and 3</t>
+  </si>
+  <si>
+    <t>Jessie 6</t>
+  </si>
+  <si>
+    <t>are 3</t>
+  </si>
+  <si>
+    <t>going 5</t>
+  </si>
+  <si>
+    <t>swimming. 9</t>
+  </si>
+  <si>
+    <t>The 3</t>
+  </si>
+  <si>
+    <t>frog 4</t>
+  </si>
+  <si>
+    <t>jumped 6</t>
+  </si>
+  <si>
+    <t>landed 6</t>
+  </si>
+  <si>
+    <t>in 2</t>
+  </si>
+  <si>
+    <t>pond. 5</t>
+  </si>
+  <si>
+    <t>Can 3</t>
+  </si>
+  <si>
+    <t>I 1</t>
+  </si>
+  <si>
+    <t>have 4</t>
+  </si>
+  <si>
+    <t>some 4</t>
+  </si>
+  <si>
+    <t>juice 5</t>
+  </si>
+  <si>
+    <t>drink? 6</t>
+  </si>
+  <si>
+    <t>pizza 5</t>
+  </si>
+  <si>
+    <t>smells 6</t>
+  </si>
+  <si>
+    <t>delicious. 10</t>
+  </si>
+  <si>
+    <t>There 5</t>
+  </si>
+  <si>
+    <t>is 2</t>
+  </si>
+  <si>
+    <t>a 1</t>
+  </si>
+  <si>
+    <t>fly 3</t>
+  </si>
+  <si>
+    <t>car 3</t>
+  </si>
+  <si>
+    <t>with 4</t>
+  </si>
+  <si>
+    <t>us. 3</t>
+  </si>
+  <si>
+    <t>Look 4</t>
+  </si>
+  <si>
+    <t>on 2</t>
+  </si>
+  <si>
+    <t>top 3</t>
+  </si>
+  <si>
+    <t>of 2</t>
+  </si>
+  <si>
+    <t>refrigerator 12</t>
+  </si>
+  <si>
+    <t>for 3</t>
+  </si>
+  <si>
+    <t>key. 4</t>
+  </si>
+  <si>
+    <t>am 2</t>
+  </si>
+  <si>
+    <t>out 3</t>
+  </si>
+  <si>
+    <t>paper 5</t>
+  </si>
+  <si>
+    <t>printer. 8</t>
+  </si>
+  <si>
+    <t>Will 4</t>
+  </si>
+  <si>
+    <t>you 3</t>
+  </si>
+  <si>
+    <t>help 4</t>
+  </si>
+  <si>
+    <t>me 2</t>
+  </si>
+  <si>
+    <t>math 4</t>
+  </si>
+  <si>
+    <t>homework? 9</t>
+  </si>
+  <si>
+    <t>music 5</t>
+  </si>
+  <si>
+    <t>too 3</t>
+  </si>
+  <si>
+    <t>loud 4</t>
+  </si>
+  <si>
+    <t>my 2</t>
+  </si>
+  <si>
+    <t>ears. 5</t>
+  </si>
+  <si>
+    <t>Karen 5</t>
+  </si>
+  <si>
+    <t>baked 5</t>
+  </si>
+  <si>
+    <t>cookies 7</t>
+  </si>
+  <si>
+    <t>dessert. 8</t>
+  </si>
+  <si>
+    <t>Jeff 4</t>
+  </si>
+  <si>
+    <t>John 4</t>
+  </si>
+  <si>
+    <t>brothers. 9</t>
+  </si>
+  <si>
+    <t>Where 5</t>
+  </si>
+  <si>
+    <t>going? 6</t>
+  </si>
+  <si>
+    <t>Jana 4</t>
+  </si>
+  <si>
+    <t>wants 5</t>
+  </si>
+  <si>
+    <t>cereal, 7</t>
+  </si>
+  <si>
+    <t>but 3</t>
+  </si>
+  <si>
+    <t>Paul 4</t>
+  </si>
+  <si>
+    <t>pancakes. 9</t>
+  </si>
+  <si>
+    <t>We 2</t>
+  </si>
+  <si>
+    <t>beach, 6</t>
+  </si>
+  <si>
+    <t>then 4</t>
+  </si>
+  <si>
+    <t>we 2</t>
+  </si>
+  <si>
+    <t>mountains. 10</t>
+  </si>
+  <si>
+    <t>Chris 5</t>
+  </si>
+  <si>
+    <t>was 3</t>
+  </si>
+  <si>
+    <t>hungry, 7</t>
+  </si>
+  <si>
+    <t>so 2</t>
+  </si>
+  <si>
+    <t>he 2</t>
+  </si>
+  <si>
+    <t>made 4</t>
+  </si>
+  <si>
+    <t>sandwich. 9</t>
+  </si>
+  <si>
+    <t>When 4</t>
+  </si>
+  <si>
+    <t>it 2</t>
+  </si>
+  <si>
+    <t>stops 5</t>
+  </si>
+  <si>
+    <t>raining, 8</t>
+  </si>
+  <si>
+    <t>will 4</t>
+  </si>
+  <si>
+    <t>play 4</t>
+  </si>
+  <si>
+    <t>baseball. 9</t>
+  </si>
+  <si>
+    <t>You 3</t>
+  </si>
+  <si>
+    <t>should 6</t>
+  </si>
+  <si>
+    <t>brush 5</t>
+  </si>
+  <si>
+    <t>your 4</t>
+  </si>
+  <si>
+    <t>teeth 5</t>
+  </si>
+  <si>
+    <t>before 6</t>
+  </si>
+  <si>
+    <t>go 2</t>
+  </si>
+  <si>
+    <t>bed. 4</t>
+  </si>
+  <si>
+    <t>Because 7</t>
+  </si>
+  <si>
+    <t>she 3</t>
+  </si>
+  <si>
+    <t>nice, 5</t>
+  </si>
+  <si>
+    <t>Mrs. 4</t>
+  </si>
+  <si>
+    <t>Thomas 6</t>
+  </si>
+  <si>
+    <t>let 3</t>
+  </si>
+  <si>
+    <t>us 2</t>
+  </si>
+  <si>
+    <t>read 4</t>
+  </si>
+  <si>
+    <t>books 5</t>
+  </si>
+  <si>
+    <t>that 4</t>
+  </si>
+  <si>
+    <t>brought 7</t>
+  </si>
+  <si>
+    <t>from 4</t>
+  </si>
+  <si>
+    <t>home. 5</t>
+  </si>
+  <si>
+    <t>After 5</t>
+  </si>
+  <si>
+    <t>arrived 7</t>
+  </si>
+  <si>
+    <t>at 2</t>
+  </si>
+  <si>
+    <t>school, 7</t>
+  </si>
+  <si>
+    <t>gym, 4</t>
+  </si>
+  <si>
+    <t>Sara 4</t>
+  </si>
+  <si>
+    <t>English. 8</t>
+  </si>
+  <si>
+    <t>need 4</t>
+  </si>
+  <si>
+    <t>new 3</t>
+  </si>
+  <si>
+    <t>coat, 5</t>
+  </si>
+  <si>
+    <t>mom 3</t>
+  </si>
+  <si>
+    <t>said 4</t>
+  </si>
+  <si>
+    <t>would 5</t>
+  </si>
+  <si>
+    <t>buy 3</t>
+  </si>
+  <si>
+    <t>one. 4</t>
+  </si>
+  <si>
+    <t>bring 5</t>
+  </si>
+  <si>
+    <t>chips 5</t>
+  </si>
+  <si>
+    <t>party 5</t>
+  </si>
+  <si>
+    <t>having 6</t>
+  </si>
+  <si>
+    <t>Jan, 4</t>
+  </si>
+  <si>
+    <t>can 3</t>
+  </si>
+  <si>
+    <t>invite 6</t>
+  </si>
+  <si>
+    <t>Marie? 6</t>
   </si>
 </sst>
 </file>
@@ -435,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A66"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,334 +843,2053 @@
     <col min="1" max="1" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" t="s">
+        <v>117</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" t="s">
+        <v>128</v>
+      </c>
+      <c r="M19" t="s">
+        <v>95</v>
+      </c>
+      <c r="N19" t="s">
+        <v>129</v>
+      </c>
+      <c r="O19" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" t="s">
+        <v>137</v>
+      </c>
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J21" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21" t="s">
+        <v>144</v>
+      </c>
+      <c r="M21" t="s">
+        <v>145</v>
+      </c>
+      <c r="N21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" t="s">
+        <v>150</v>
+      </c>
+      <c r="M22" t="s">
+        <v>60</v>
+      </c>
+      <c r="N22" t="s">
+        <v>151</v>
+      </c>
+      <c r="O22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>67</v>
+      </c>
+      <c r="R22" t="s">
+        <v>153</v>
+      </c>
+      <c r="S22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" t="s">
+        <v>95</v>
+      </c>
+      <c r="J37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" t="s">
+        <v>109</v>
+      </c>
+      <c r="I39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" t="s">
+        <v>117</v>
+      </c>
+      <c r="J40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" t="s">
+        <v>124</v>
+      </c>
+      <c r="I41" t="s">
+        <v>125</v>
+      </c>
+      <c r="J41" t="s">
+        <v>126</v>
+      </c>
+      <c r="K41" t="s">
+        <v>127</v>
+      </c>
+      <c r="L41" t="s">
+        <v>128</v>
+      </c>
+      <c r="M41" t="s">
+        <v>95</v>
+      </c>
+      <c r="N41" t="s">
+        <v>129</v>
+      </c>
+      <c r="O41" t="s">
+        <v>130</v>
+      </c>
+      <c r="P41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" t="s">
+        <v>136</v>
+      </c>
+      <c r="K42" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42" t="s">
+        <v>137</v>
+      </c>
+      <c r="M42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" t="s">
+        <v>142</v>
+      </c>
+      <c r="I43" t="s">
+        <v>143</v>
+      </c>
+      <c r="J43" t="s">
+        <v>128</v>
+      </c>
+      <c r="K43" t="s">
+        <v>120</v>
+      </c>
+      <c r="L43" t="s">
+        <v>144</v>
+      </c>
+      <c r="M43" t="s">
+        <v>145</v>
+      </c>
+      <c r="N43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" t="s">
+        <v>149</v>
+      </c>
+      <c r="I44" t="s">
+        <v>128</v>
+      </c>
+      <c r="J44" t="s">
+        <v>95</v>
+      </c>
+      <c r="K44" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" t="s">
+        <v>150</v>
+      </c>
+      <c r="M44" t="s">
+        <v>60</v>
+      </c>
+      <c r="N44" t="s">
+        <v>151</v>
+      </c>
+      <c r="O44" t="s">
+        <v>28</v>
+      </c>
+      <c r="P44" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>67</v>
+      </c>
+      <c r="R44" t="s">
+        <v>153</v>
+      </c>
+      <c r="S44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" t="s">
+        <v>53</v>
+      </c>
+      <c r="J50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" t="s">
+        <v>60</v>
+      </c>
+      <c r="I51" t="s">
+        <v>25</v>
+      </c>
+      <c r="J51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" t="s">
+        <v>53</v>
+      </c>
+      <c r="G53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" t="s">
+        <v>60</v>
+      </c>
+      <c r="H54" t="s">
+        <v>75</v>
+      </c>
+      <c r="I54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" t="s">
+        <v>87</v>
+      </c>
+      <c r="H58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>93</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59" t="s">
+        <v>95</v>
+      </c>
+      <c r="J59" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" t="s">
+        <v>25</v>
+      </c>
+      <c r="M59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60" t="s">
+        <v>102</v>
+      </c>
+      <c r="H60" t="s">
+        <v>50</v>
+      </c>
+      <c r="I60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" t="s">
+        <v>95</v>
+      </c>
+      <c r="G61" t="s">
+        <v>108</v>
+      </c>
+      <c r="H61" t="s">
+        <v>109</v>
+      </c>
+      <c r="I61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" t="s">
+        <v>115</v>
+      </c>
+      <c r="G62" t="s">
+        <v>116</v>
+      </c>
+      <c r="H62" t="s">
+        <v>67</v>
+      </c>
+      <c r="I62" t="s">
+        <v>117</v>
+      </c>
+      <c r="J62" t="s">
+        <v>24</v>
+      </c>
+      <c r="K62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" t="s">
+        <v>121</v>
+      </c>
+      <c r="F63" t="s">
+        <v>122</v>
+      </c>
+      <c r="G63" t="s">
+        <v>123</v>
+      </c>
+      <c r="H63" t="s">
+        <v>124</v>
+      </c>
+      <c r="I63" t="s">
+        <v>125</v>
+      </c>
+      <c r="J63" t="s">
+        <v>126</v>
+      </c>
+      <c r="K63" t="s">
+        <v>127</v>
+      </c>
+      <c r="L63" t="s">
+        <v>128</v>
+      </c>
+      <c r="M63" t="s">
+        <v>95</v>
+      </c>
+      <c r="N63" t="s">
+        <v>129</v>
+      </c>
+      <c r="O63" t="s">
+        <v>130</v>
+      </c>
+      <c r="P63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64" t="s">
+        <v>135</v>
+      </c>
+      <c r="G64" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" t="s">
+        <v>136</v>
+      </c>
+      <c r="K64" t="s">
+        <v>28</v>
+      </c>
+      <c r="L64" t="s">
+        <v>137</v>
+      </c>
+      <c r="M64" t="s">
+        <v>23</v>
+      </c>
+      <c r="N64" t="s">
+        <v>24</v>
+      </c>
+      <c r="O64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" t="s">
+        <v>140</v>
+      </c>
+      <c r="F65" t="s">
+        <v>141</v>
+      </c>
+      <c r="G65" t="s">
+        <v>100</v>
+      </c>
+      <c r="H65" t="s">
+        <v>142</v>
+      </c>
+      <c r="I65" t="s">
+        <v>143</v>
+      </c>
+      <c r="J65" t="s">
+        <v>128</v>
+      </c>
+      <c r="K65" t="s">
+        <v>120</v>
+      </c>
+      <c r="L65" t="s">
+        <v>144</v>
+      </c>
+      <c r="M65" t="s">
+        <v>145</v>
+      </c>
+      <c r="N65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>21</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" t="s">
+        <v>147</v>
+      </c>
+      <c r="E66" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" t="s">
+        <v>60</v>
+      </c>
+      <c r="G66" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" t="s">
+        <v>149</v>
+      </c>
+      <c r="I66" t="s">
+        <v>128</v>
+      </c>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+      <c r="K66" t="s">
+        <v>30</v>
+      </c>
+      <c r="L66" t="s">
+        <v>150</v>
+      </c>
+      <c r="M66" t="s">
+        <v>60</v>
+      </c>
+      <c r="N66" t="s">
+        <v>151</v>
+      </c>
+      <c r="O66" t="s">
+        <v>28</v>
+      </c>
+      <c r="P66" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>67</v>
+      </c>
+      <c r="R66" t="s">
+        <v>153</v>
+      </c>
+      <c r="S66" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
